--- a/miniproyecto_1/Datos_MP1.xlsx
+++ b/miniproyecto_1/Datos_MP1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannospina/Dropbox/ACTIVIDADES_2019-1/UTP/Curso_UTP_2019-2/Lab3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sampi\OneDrive\Documentos\UAO\semestre_5\Estadistica_2\Stadistic\miniproyecto_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7F9706-7BA8-4926-B8B8-BADA219A1B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="15375" windowHeight="8325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_1" sheetId="1" r:id="rId1"/>
@@ -145,8 +146,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,6 +179,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -203,7 +212,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,6 +222,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -227,6 +239,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -494,85 +509,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>48</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>17066</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>0.5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>38</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>14464</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1.5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>788</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>37</v>
-      </c>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4.7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -581,21 +610,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -609,7 +638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45</v>
       </c>
@@ -623,7 +652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>108</v>
       </c>
@@ -637,7 +666,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -651,7 +680,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>67</v>
       </c>
@@ -665,7 +694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>153</v>
       </c>
@@ -679,7 +708,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>51</v>
       </c>
@@ -693,7 +722,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>164</v>
       </c>
@@ -707,7 +736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>133</v>
       </c>
@@ -721,7 +750,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -735,7 +764,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>53</v>
       </c>
@@ -749,7 +778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -763,7 +792,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>128</v>
       </c>
@@ -777,7 +806,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -791,7 +820,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>106</v>
       </c>
@@ -805,7 +834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>89</v>
       </c>
@@ -819,7 +848,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>134</v>
       </c>
@@ -833,7 +862,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -847,7 +876,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>145</v>
       </c>
@@ -861,7 +890,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>11</v>
       </c>
@@ -875,7 +904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>117</v>
       </c>
@@ -889,7 +918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>109</v>
       </c>
@@ -903,7 +932,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>12</v>
       </c>
@@ -917,7 +946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>37</v>
       </c>
@@ -931,7 +960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>69</v>
       </c>
@@ -945,7 +974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43</v>
       </c>
@@ -959,7 +988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>196</v>
       </c>
@@ -973,7 +1002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>36</v>
       </c>
@@ -987,7 +1016,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>155</v>
       </c>
@@ -1001,7 +1030,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>6</v>
       </c>
@@ -1015,7 +1044,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -1029,7 +1058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>25</v>
       </c>
@@ -1043,7 +1072,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>107</v>
       </c>
@@ -1057,7 +1086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>5</v>
       </c>
@@ -1071,7 +1100,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>47</v>
       </c>
@@ -1085,7 +1114,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>140</v>
       </c>
@@ -1099,7 +1128,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>22</v>
       </c>
@@ -1113,7 +1142,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>18</v>
       </c>
@@ -1127,7 +1156,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>30</v>
       </c>
@@ -1141,7 +1170,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -1155,7 +1184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>176</v>
       </c>
@@ -1169,7 +1198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>126</v>
       </c>
@@ -1183,7 +1212,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>197</v>
       </c>
@@ -1197,7 +1226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>46</v>
       </c>
@@ -1211,7 +1240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>49</v>
       </c>
@@ -1225,7 +1254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>8</v>
       </c>
@@ -1239,7 +1268,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>124</v>
       </c>
@@ -1253,7 +1282,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>13</v>
       </c>
@@ -1267,7 +1296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>111</v>
       </c>
@@ -1281,7 +1310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>142</v>
       </c>
@@ -1295,7 +1324,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>193</v>
       </c>
@@ -1309,7 +1338,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>105</v>
       </c>
@@ -1323,7 +1352,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>58</v>
       </c>
@@ -1337,7 +1366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>129</v>
       </c>
@@ -1351,7 +1380,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>38</v>
       </c>
@@ -1365,7 +1394,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>182</v>
       </c>
@@ -1379,7 +1408,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>115</v>
       </c>
@@ -1393,7 +1422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>14</v>
       </c>
@@ -1407,7 +1436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>175</v>
       </c>
@@ -1421,7 +1450,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44</v>
       </c>
@@ -1435,7 +1464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>86</v>
       </c>
@@ -1449,7 +1478,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>72</v>
       </c>
@@ -1463,7 +1492,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>41</v>
       </c>
@@ -1477,7 +1506,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>191</v>
       </c>
@@ -1491,7 +1520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>138</v>
       </c>
@@ -1505,7 +1534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>9</v>
       </c>
@@ -1519,7 +1548,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>151</v>
       </c>
@@ -1533,7 +1562,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>119</v>
       </c>
@@ -1547,7 +1576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>55</v>
       </c>
@@ -1561,7 +1590,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>73</v>
       </c>
@@ -1575,7 +1604,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>28</v>
       </c>
@@ -1589,7 +1618,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>90</v>
       </c>
@@ -1603,7 +1632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>17</v>
       </c>
@@ -1617,7 +1646,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>102</v>
       </c>
@@ -1631,7 +1660,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>70</v>
       </c>
@@ -1645,7 +1674,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>148</v>
       </c>
@@ -1659,7 +1688,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>54</v>
       </c>
@@ -1673,7 +1702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>42</v>
       </c>
@@ -1687,7 +1716,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>87</v>
       </c>
@@ -1701,7 +1730,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>21</v>
       </c>
@@ -1715,7 +1744,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>181</v>
       </c>
@@ -1729,7 +1758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>165</v>
       </c>
@@ -1743,7 +1772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>78</v>
       </c>
@@ -1757,7 +1786,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>76</v>
       </c>
@@ -1771,7 +1800,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>29</v>
       </c>
@@ -1785,7 +1814,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>91</v>
       </c>
@@ -1799,7 +1828,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>52</v>
       </c>
@@ -1813,7 +1842,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>10</v>
       </c>
@@ -1827,7 +1856,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -1841,7 +1870,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>50</v>
       </c>
@@ -1855,7 +1884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>56</v>
       </c>
@@ -1869,7 +1898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>64</v>
       </c>
@@ -1883,7 +1912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>130</v>
       </c>
@@ -1897,7 +1926,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>141</v>
       </c>
@@ -1911,7 +1940,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>74</v>
       </c>
@@ -1925,7 +1954,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>83</v>
       </c>
@@ -1939,7 +1968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>31</v>
       </c>
@@ -1953,7 +1982,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>172</v>
       </c>
@@ -1967,7 +1996,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>184</v>
       </c>
@@ -1981,7 +2010,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>75</v>
       </c>
@@ -1995,7 +2024,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>187</v>
       </c>
@@ -2009,7 +2038,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>113</v>
       </c>
@@ -2023,7 +2052,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>162</v>
       </c>
@@ -2037,7 +2066,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>110</v>
       </c>
@@ -2051,7 +2080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>150</v>
       </c>
@@ -2065,7 +2094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>167</v>
       </c>
@@ -2079,7 +2108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>77</v>
       </c>
@@ -2093,7 +2122,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>35</v>
       </c>
@@ -2107,7 +2136,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>158</v>
       </c>
@@ -2121,7 +2150,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>112</v>
       </c>
@@ -2135,7 +2164,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>48</v>
       </c>
@@ -2149,7 +2178,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>147</v>
       </c>
@@ -2163,7 +2192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>7</v>
       </c>
@@ -2177,7 +2206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>65</v>
       </c>
@@ -2191,7 +2220,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>168</v>
       </c>
@@ -2205,7 +2234,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>190</v>
       </c>
@@ -2219,7 +2248,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>178</v>
       </c>
@@ -2233,7 +2262,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>159</v>
       </c>
@@ -2247,7 +2276,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>120</v>
       </c>
@@ -2261,7 +2290,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>116</v>
       </c>
@@ -2275,7 +2304,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>79</v>
       </c>
@@ -2289,7 +2318,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>98</v>
       </c>
@@ -2303,7 +2332,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -2317,7 +2346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>179</v>
       </c>
@@ -2331,7 +2360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>198</v>
       </c>
@@ -2345,7 +2374,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>189</v>
       </c>
@@ -2359,7 +2388,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>199</v>
       </c>
@@ -2373,7 +2402,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>156</v>
       </c>
@@ -2387,7 +2416,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>166</v>
       </c>
@@ -2401,7 +2430,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>160</v>
       </c>
@@ -2415,7 +2444,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>152</v>
       </c>
@@ -2429,7 +2458,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>183</v>
       </c>
@@ -2443,7 +2472,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>94</v>
       </c>
@@ -2457,7 +2486,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>149</v>
       </c>
@@ -2471,7 +2500,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>131</v>
       </c>
@@ -2485,7 +2514,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>24</v>
       </c>
@@ -2499,7 +2528,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>99</v>
       </c>
@@ -2513,7 +2542,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>171</v>
       </c>
@@ -2527,7 +2556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>104</v>
       </c>
@@ -2541,7 +2570,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>81</v>
       </c>
@@ -2555,7 +2584,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>97</v>
       </c>
@@ -2569,7 +2598,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>20</v>
       </c>
@@ -2583,7 +2612,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>163</v>
       </c>
@@ -2597,7 +2626,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>195</v>
       </c>
@@ -2611,7 +2640,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>84</v>
       </c>
@@ -2625,7 +2654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>27</v>
       </c>
@@ -2639,7 +2668,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>118</v>
       </c>
@@ -2653,7 +2682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>71</v>
       </c>
@@ -2667,7 +2696,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>63</v>
       </c>
@@ -2681,7 +2710,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>185</v>
       </c>
@@ -2695,7 +2724,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>127</v>
       </c>
@@ -2709,7 +2738,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>177</v>
       </c>
@@ -2723,7 +2752,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>188</v>
       </c>
@@ -2737,7 +2766,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>60</v>
       </c>
@@ -2751,7 +2780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>66</v>
       </c>
@@ -2765,7 +2794,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>173</v>
       </c>
@@ -2779,7 +2808,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>186</v>
       </c>
@@ -2793,7 +2822,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>96</v>
       </c>
@@ -2807,7 +2836,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>101</v>
       </c>
@@ -2821,7 +2850,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>3</v>
       </c>
@@ -2835,7 +2864,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>170</v>
       </c>
@@ -2849,7 +2878,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>92</v>
       </c>
@@ -2863,7 +2892,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>62</v>
       </c>
@@ -2877,7 +2906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>135</v>
       </c>
@@ -2891,7 +2920,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>26</v>
       </c>
@@ -2905,7 +2934,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>139</v>
       </c>
@@ -2919,7 +2948,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>121</v>
       </c>
@@ -2933,7 +2962,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>144</v>
       </c>
@@ -2947,7 +2976,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>146</v>
       </c>
@@ -2961,7 +2990,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>137</v>
       </c>
@@ -2975,7 +3004,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>123</v>
       </c>
@@ -2989,7 +3018,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>169</v>
       </c>
@@ -3003,7 +3032,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>34</v>
       </c>
@@ -3017,7 +3046,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>33</v>
       </c>
@@ -3031,7 +3060,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>32</v>
       </c>
@@ -3045,7 +3074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>114</v>
       </c>
@@ -3059,7 +3088,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>125</v>
       </c>
@@ -3073,7 +3102,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>59</v>
       </c>
@@ -3087,7 +3116,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>23</v>
       </c>
@@ -3101,7 +3130,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>161</v>
       </c>
@@ -3115,7 +3144,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>103</v>
       </c>
@@ -3129,7 +3158,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>194</v>
       </c>
@@ -3143,7 +3172,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>136</v>
       </c>
@@ -3157,7 +3186,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>154</v>
       </c>
@@ -3171,7 +3200,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>157</v>
       </c>
@@ -3185,7 +3214,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>93</v>
       </c>
@@ -3199,7 +3228,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>39</v>
       </c>
@@ -3213,7 +3242,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>88</v>
       </c>
@@ -3227,7 +3256,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>192</v>
       </c>
@@ -3241,7 +3270,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>80</v>
       </c>
@@ -3255,7 +3284,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>200</v>
       </c>
@@ -3269,7 +3298,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>180</v>
       </c>
@@ -3283,7 +3312,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>82</v>
       </c>
@@ -3297,7 +3326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>174</v>
       </c>
@@ -3311,7 +3340,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>95</v>
       </c>
@@ -3325,7 +3354,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>61</v>
       </c>
@@ -3339,7 +3368,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>100</v>
       </c>
@@ -3353,7 +3382,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>143</v>
       </c>
@@ -3367,7 +3396,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>68</v>
       </c>
@@ -3381,7 +3410,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>57</v>
       </c>
@@ -3395,7 +3424,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>132</v>
       </c>
@@ -3415,22 +3444,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+    <sheetView zoomScale="179" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -3444,7 +3473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -3458,7 +3487,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -3472,7 +3501,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -3486,7 +3515,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -3500,7 +3529,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -3514,7 +3543,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -3528,7 +3557,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -3542,7 +3571,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -3556,7 +3585,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -3570,7 +3599,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -3584,7 +3613,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -3598,7 +3627,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -3612,7 +3641,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -3626,7 +3655,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -3640,7 +3669,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -3654,7 +3683,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3668,7 +3697,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -3682,7 +3711,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -3696,7 +3725,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -3710,7 +3739,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -3724,7 +3753,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -3738,7 +3767,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -3752,7 +3781,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -3767,7 +3796,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
     <sortCondition ref="C2:C24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
